--- a/Calculs/PH2/DataBase_PH2_FileA_MidStrip_V6_results.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileA_MidStrip_V6_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY53"/>
+  <dimension ref="A1:AY66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3944,13 +3944,13 @@
         <v>4.800000000000001</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.640000000000001</v>
+        <v>6.48</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.800000000000001</v>
+        <v>6.960000000000001</v>
       </c>
       <c r="AD22" t="n">
         <v>18.864</v>
@@ -3960,28 +3960,28 @@
         <v>13.44</v>
       </c>
       <c r="AG22" t="n">
-        <v>8.640000000000001</v>
+        <v>6.48</v>
       </c>
       <c r="AH22" t="n">
-        <v>4.800000000000001</v>
+        <v>6.960000000000001</v>
       </c>
       <c r="AI22" t="n">
-        <v>2.579549321448752</v>
+        <v>1.934661991086567</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.6903757188918119</v>
+        <v>1.001044792393128</v>
       </c>
       <c r="AK22" t="n">
-        <v>-296.786685500912</v>
+        <v>-222.5900141256838</v>
       </c>
       <c r="AL22" t="n">
-        <v>-44.32754615030994</v>
+        <v>-64.27494191794936</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>-62.15672041964857</v>
+        <v>-90.12724460849039</v>
       </c>
       <c r="AO22" t="n">
         <v>18.864</v>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V23" t="n">
         <v>75</v>
@@ -4103,13 +4103,13 @@
         <v>50.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>104.34</v>
+        <v>52.17</v>
       </c>
       <c r="AC23" t="n">
-        <v>50.3</v>
+        <v>102.47</v>
       </c>
       <c r="AD23" t="n">
         <v>216.309</v>
@@ -4119,28 +4119,28 @@
         <v>154.64</v>
       </c>
       <c r="AG23" t="n">
-        <v>104.34</v>
+        <v>52.17</v>
       </c>
       <c r="AH23" t="n">
-        <v>50.3</v>
+        <v>102.47</v>
       </c>
       <c r="AI23" t="n">
-        <v>10.61075503541088</v>
+        <v>5.305377791543751</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4.566198387148886</v>
+        <v>8.748725338663739</v>
       </c>
       <c r="AK23" t="n">
-        <v>-459.0641955385379</v>
+        <v>-229.5320960150806</v>
       </c>
       <c r="AL23" t="n">
-        <v>-181.8586041895432</v>
+        <v>-331.0150353976464</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>-253.0638673140792</v>
+        <v>-461.3201306386427</v>
       </c>
       <c r="AO23" t="n">
         <v>216.309</v>
@@ -4149,7 +4149,7 @@
         <v>108.0858645437577</v>
       </c>
       <c r="AQ23" t="n">
-        <v>166.3756425550719</v>
+        <v>210.1581409212419</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -4262,13 +4262,13 @@
         <v>2.600000000000001</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>4.68</v>
+        <v>2.34</v>
       </c>
       <c r="AC24" t="n">
-        <v>2.600000000000001</v>
+        <v>4.940000000000001</v>
       </c>
       <c r="AD24" t="n">
         <v>10.218</v>
@@ -4278,28 +4278,28 @@
         <v>7.280000000000001</v>
       </c>
       <c r="AG24" t="n">
-        <v>4.68</v>
+        <v>2.34</v>
       </c>
       <c r="AH24" t="n">
-        <v>2.600000000000001</v>
+        <v>4.940000000000001</v>
       </c>
       <c r="AI24" t="n">
-        <v>1.863981359324314</v>
+        <v>0.9319906796621502</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.3257616358275507</v>
+        <v>0.6189471080723467</v>
       </c>
       <c r="AK24" t="n">
-        <v>-290.1785714285713</v>
+        <v>-145.0892857142857</v>
       </c>
       <c r="AL24" t="n">
-        <v>-21.23031884560145</v>
+        <v>-40.33760580664275</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>-34.56658954892038</v>
+        <v>-65.67652014294873</v>
       </c>
       <c r="AO24" t="n">
         <v>10.218</v>
@@ -4421,13 +4421,13 @@
         <v>31.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>57.66</v>
+        <v>28.83</v>
       </c>
       <c r="AC25" t="n">
-        <v>31.7</v>
+        <v>60.53</v>
       </c>
       <c r="AD25" t="n">
         <v>125.391</v>
@@ -4437,22 +4437,22 @@
         <v>89.36</v>
       </c>
       <c r="AG25" t="n">
-        <v>57.66</v>
+        <v>28.83</v>
       </c>
       <c r="AH25" t="n">
-        <v>31.7</v>
+        <v>60.53</v>
       </c>
       <c r="AI25" t="n">
-        <v>4.734566789197622</v>
+        <v>2.367283394598807</v>
       </c>
       <c r="AJ25" t="n">
-        <v>2.602944280568238</v>
+        <v>4.970227675167042</v>
       </c>
       <c r="AK25" t="n">
-        <v>-220.6509527051624</v>
+        <v>-110.3254763525812</v>
       </c>
       <c r="AL25" t="n">
-        <v>-121.308276114354</v>
+        <v>-231.6337524669352</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
@@ -5844,13 +5844,13 @@
         <v>3.799999999999997</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>4.417499999999998</v>
+        <v>5.889999999999997</v>
       </c>
       <c r="AC34" t="n">
-        <v>5.272499999999996</v>
+        <v>3.799999999999997</v>
       </c>
       <c r="AD34" t="n">
         <v>13.65149999999999</v>
@@ -5860,28 +5860,28 @@
         <v>9.689999999999994</v>
       </c>
       <c r="AG34" t="n">
-        <v>4.417499999999998</v>
+        <v>5.889999999999997</v>
       </c>
       <c r="AH34" t="n">
-        <v>5.272499999999996</v>
+        <v>3.799999999999997</v>
       </c>
       <c r="AI34" t="n">
-        <v>1.596533842265732</v>
+        <v>2.128696865464182</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.782129844834449</v>
+        <v>0.5636971854662671</v>
       </c>
       <c r="AK34" t="n">
-        <v>-208.6875465519739</v>
+        <v>-278.2501585762294</v>
       </c>
       <c r="AL34" t="n">
-        <v>-52.51253849324974</v>
+        <v>-37.84687458972954</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>-73.57141364951308</v>
+        <v>-53.02444226991933</v>
       </c>
       <c r="AO34" t="n">
         <v>13.65149999999999</v>
@@ -6003,13 +6003,13 @@
         <v>40.1</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>43.7775</v>
+        <v>87.55500000000001</v>
       </c>
       <c r="AC35" t="n">
-        <v>83.8775</v>
+        <v>40.1</v>
       </c>
       <c r="AD35" t="n">
         <v>178.34925</v>
@@ -6019,28 +6019,28 @@
         <v>127.655</v>
       </c>
       <c r="AG35" t="n">
-        <v>43.7775</v>
+        <v>87.55500000000001</v>
       </c>
       <c r="AH35" t="n">
-        <v>83.8775</v>
+        <v>40.1</v>
       </c>
       <c r="AI35" t="n">
-        <v>3.709134608654105</v>
+        <v>7.418269217308211</v>
       </c>
       <c r="AJ35" t="n">
-        <v>6.590596306362447</v>
+        <v>3.150820087450563</v>
       </c>
       <c r="AK35" t="n">
-        <v>-129.2800557091556</v>
+        <v>-258.5601114183112</v>
       </c>
       <c r="AL35" t="n">
-        <v>-216.2811117766197</v>
+        <v>-103.3992737294561</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
       </c>
       <c r="AN35" t="n">
-        <v>-302.8176035147662</v>
+        <v>-144.7704795796505</v>
       </c>
       <c r="AO35" t="n">
         <v>178.34925</v>
@@ -6162,13 +6162,13 @@
         <v>35</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AD36" t="n">
         <v>160.5</v>
@@ -6178,22 +6178,22 @@
         <v>115</v>
       </c>
       <c r="AG36" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI36" t="n">
-        <v>3.474008118460087</v>
+        <v>6.948016236920167</v>
       </c>
       <c r="AJ36" t="n">
-        <v>6.513765222112654</v>
+        <v>3.039757103652577</v>
       </c>
       <c r="AK36" t="n">
-        <v>-99.88023123326705</v>
+        <v>-199.7604624665342</v>
       </c>
       <c r="AL36" t="n">
-        <v>-187.2754335623758</v>
+        <v>-87.39520232910868</v>
       </c>
       <c r="AM36" t="n">
         <v>0</v>
@@ -6321,13 +6321,13 @@
         <v>20</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>20.25</v>
+        <v>40.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>40.25</v>
+        <v>20</v>
       </c>
       <c r="AD37" t="n">
         <v>84.67500000000001</v>
@@ -6337,22 +6337,22 @@
         <v>60.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>20.25</v>
+        <v>40.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>40.25</v>
+        <v>20</v>
       </c>
       <c r="AI37" t="n">
-        <v>1.662764090899268</v>
+        <v>3.325528181798536</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3.305000230059042</v>
+        <v>1.642236139159769</v>
       </c>
       <c r="AK37" t="n">
-        <v>-77.49187985222926</v>
+        <v>-154.9837597044585</v>
       </c>
       <c r="AL37" t="n">
-        <v>-154.0270698297396</v>
+        <v>-76.53518997751037</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
@@ -8764,7 +8764,9 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
+      <c r="A53" t="n">
+        <v>6</v>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>File A' - 6</t>
@@ -8918,6 +8920,2057 @@
       </c>
       <c r="AY53" t="n">
         <v>148.9385365911288</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>File A' - 6</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>25</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>500</v>
+      </c>
+      <c r="G54" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>File A' - 3</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Travée 1</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>25</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>500</v>
+      </c>
+      <c r="G55" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.0013621</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>40</v>
+      </c>
+      <c r="W55" t="n">
+        <v>23</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>58.585</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>33.1775</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>58.585</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>33.1775</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>128.856</v>
+      </c>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="n">
+        <v>91.7625</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>58.585</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>33.1775</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>4.810520210633759</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>2.724264475348664</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-224.1907052416223</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>-126.9623132739425</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>128.856</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>124.3304424912025</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>124.3304424912025</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>91.7625</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>5.381525433720874</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>-356.9516131962719</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>124.3304424912025</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>File A' - 3</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Appui 1</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>25</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>500</v>
+      </c>
+      <c r="G56" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.0001024</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>10</v>
+      </c>
+      <c r="V56" t="n">
+        <v>42</v>
+      </c>
+      <c r="W56" t="n">
+        <v>23</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.885</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>4.829999999999998</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>2.645</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>4.829999999999998</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>2.645</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>10.488</v>
+      </c>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="n">
+        <v>7.474999999999998</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>4.829999999999998</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>2.645</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>1.923724351610349</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0.3313998179861041</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-299.4791666666666</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-21.59776667177532</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-35.16485744495939</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>10.488</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>7.514500553358762</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>128.2372845634338</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0.9652625782962536</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-85.43078782178949</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>-140.7449613183755</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>7.474999999999998</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>10.3946081214607</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>-463.4796626984126</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>7.514500553358762</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>File A' - 3</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Travée 2</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>25</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>500</v>
+      </c>
+      <c r="G57" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.0027189</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>6</v>
+      </c>
+      <c r="V57" t="n">
+        <v>83</v>
+      </c>
+      <c r="W57" t="n">
+        <v>36</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>118.385</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>54.9975</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>118.385</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>54.9975</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>242.316</v>
+      </c>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="n">
+        <v>173.3825</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>118.385</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>54.9975</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>8.847773329229742</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>3.889975950514983</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>-264.4488485844082</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-110.6741756286132</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-155.7828644755938</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>242.316</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>207.9192124272736</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>261.428568752349</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>13.87988579818657</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-436.758856744644</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-1381.48294272972</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>173.3825</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>8.995544490738817</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>-397.7895514709759</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>207.9192124272736</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>File A' - 3</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Appui 2</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>25</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>500</v>
+      </c>
+      <c r="G58" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.0001344</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>10</v>
+      </c>
+      <c r="V58" t="n">
+        <v>40</v>
+      </c>
+      <c r="W58" t="n">
+        <v>21</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>6.399999999999999</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>3.359999999999999</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>6.399999999999999</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>3.359999999999999</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="n">
+        <v>9.759999999999998</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>6.399999999999999</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>3.359999999999999</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>2.313038858060446</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0.4984269850438586</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>-302.3429739337643</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>-33.46460490039246</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-46.88477000708661</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>9.86278197628504</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>114.293679075175</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1.485354486980471</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-136.6259625571932</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-192.8767347766619</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>9.759999999999998</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>10.22097027493397</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>-461.0733182161753</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>9.86278197628504</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>File A' - 3</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Travée 3</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>25</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>500</v>
+      </c>
+      <c r="G59" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="L59" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.0006784</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>16</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>25.425</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>25.425</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>60.81750000000001</v>
+      </c>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="n">
+        <v>42.225</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>25.425</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>2.333002938926465</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>3.530749983464605</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-146.1575683041729</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-221.1938198889044</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>60.81750000000001</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>54.52485818181793</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>54.52485818181793</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>42.225</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>4.212816329328555</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>-371.6712852300656</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>54.52485818181793</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>File A' - 3</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Appui 3</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>25</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>500</v>
+      </c>
+      <c r="G60" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L60" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.0001344</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>11</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>14.685</v>
+      </c>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>3.538182734489757</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-462.4905517762659</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>14.685</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>9.862781976284463</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>9.862781976284463</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>10.54235861322505</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>-462.490551776266</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>9.862781976284463</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>File A' - 3</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Travée 4</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>25</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>500</v>
+      </c>
+      <c r="G61" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="L61" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.0006784</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2</v>
+      </c>
+      <c r="W61" t="n">
+        <v>16</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>16.605</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>16.605</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>27.6075</v>
+      </c>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="n">
+        <v>18.605</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>16.605</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.2777423243525967</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>2.305923440528213</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>-17.39968147781268</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>-144.4610965292137</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>27.6075</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>54.52485818181793</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>54.52485818181793</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>2.796786265020779</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>-242.9070236423431</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>18.605</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>1.901952749251679</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>-163.6579772305639</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>54.52485818181793</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>File A' - 3</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Appui 4</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>25</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>500</v>
+      </c>
+      <c r="G62" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L62" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.0001856</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.0001539</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>36</v>
+      </c>
+      <c r="W62" t="n">
+        <v>20</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="n">
+        <v>56</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>8.061091629527356</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>3.967533574888444</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>-927.4583921903494</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-197.3602283165587</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>-197.3602283165587</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>13.62003225297092</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>69.95485481591065</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>56</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>5.421230313474586</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>-387.2738569132154</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>69.95485481591065</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>File A' - 3</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Travée 5</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>25</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>500</v>
+      </c>
+      <c r="G63" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.0013568</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>10</v>
+      </c>
+      <c r="V63" t="n">
+        <v>75</v>
+      </c>
+      <c r="W63" t="n">
+        <v>34</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>152.25</v>
+      </c>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="n">
+        <v>109</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>3.813526721005452</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>6.104556081921123</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-164.9885654702591</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-230.9707722351098</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-321.8931330210105</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>152.25</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>108.0858645437577</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>210.1581409212419</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>9.764778096855881</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-435.6047930382386</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-928.9886461935361</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>109</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>108.0858645437577</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>File A' - 3</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Appui 5</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>25</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>500</v>
+      </c>
+      <c r="G64" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.0001024</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.0001539</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2.91e-05</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>36</v>
+      </c>
+      <c r="W64" t="n">
+        <v>20</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="n">
+        <v>56</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>7.169159074324253</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>4.249605467885272</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-1116.071428571428</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>-203.2276504961052</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>-246.3957777202971</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>7.514500553358762</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>74.54781455282452</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>56</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>4.478251804052674</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>-301.0165690564525</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>74.54781455282452</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>File A' - 3</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Travée 6</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>25</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>500</v>
+      </c>
+      <c r="G65" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L65" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.0013621</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>42</v>
+      </c>
+      <c r="W65" t="n">
+        <v>23</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>44</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>1.724347946117758</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>3.612919506151487</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>-80.36194947638587</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>-168.3774179505228</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>124.3304424912025</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>124.3304424912025</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>5.350643020354004</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>-354.7569259747797</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>3.882235847044813</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>-252.628100319461</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>124.3304424912025</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>File A' - 3</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>25</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>500</v>
+      </c>
+      <c r="G66" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>0.7804308298384421</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>0.7804308298384421</v>
       </c>
     </row>
   </sheetData>
